--- a/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/3_attributes.xlsx
+++ b/pim/src/Pcmt/PcmtCustomDatasetBundle/Resources/fixtures/pcmt_global/import_files/3_attributes.xlsx
@@ -1285,7 +1285,7 @@
       </c>
       <c r="U24" s="0" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="V24" s="0" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="U25" s="0" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="V25" s="0" t="inlineStr">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="U26" s="0" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="V26" s="0" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="U27" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="V27" s="0" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="U28" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V28" s="0" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="U164" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="V164" s="0" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="U166" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="V166" s="0" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="U167" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V167" s="0" t="inlineStr">
@@ -9881,7 +9881,7 @@
       </c>
       <c r="U187" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="V187" s="0" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="U360" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="V360" s="0" t="inlineStr">
@@ -18254,7 +18254,7 @@
       </c>
       <c r="U361" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="V361" s="0" t="inlineStr">
@@ -18296,7 +18296,7 @@
       </c>
       <c r="U362" s="0" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="V362" s="0" t="inlineStr">
@@ -18312,6 +18312,174 @@
       <c r="X362" s="0" t="inlineStr">
         <is>
           <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="363" spans="1:27">
+      <c r="A363" s="0" t="inlineStr">
+        <is>
+          <t>GTIN_PALLET_LEVEL</t>
+        </is>
+      </c>
+      <c r="J363" s="0" t="inlineStr">
+        <is>
+          <t>PRODUCT_CODING</t>
+        </is>
+      </c>
+      <c r="K363" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T363" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U363" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V363" s="0" t="inlineStr">
+        <is>
+          <t>pim_catalog_text</t>
+        </is>
+      </c>
+      <c r="W363" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X363" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="364" spans="1:27">
+      <c r="A364" s="0" t="inlineStr">
+        <is>
+          <t>GTIN_CASE_LEVEL</t>
+        </is>
+      </c>
+      <c r="J364" s="0" t="inlineStr">
+        <is>
+          <t>PRODUCT_CODING</t>
+        </is>
+      </c>
+      <c r="K364" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T364" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U364" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V364" s="0" t="inlineStr">
+        <is>
+          <t>pim_catalog_text</t>
+        </is>
+      </c>
+      <c r="W364" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X364" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="365" spans="1:27">
+      <c r="A365" s="0" t="inlineStr">
+        <is>
+          <t>GTIN_INNERPACK_LEVEL</t>
+        </is>
+      </c>
+      <c r="J365" s="0" t="inlineStr">
+        <is>
+          <t>PRODUCT_CODING</t>
+        </is>
+      </c>
+      <c r="K365" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T365" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U365" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V365" s="0" t="inlineStr">
+        <is>
+          <t>pim_catalog_text</t>
+        </is>
+      </c>
+      <c r="W365" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X365" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="366" spans="1:27">
+      <c r="A366" s="0" t="inlineStr">
+        <is>
+          <t>REGULATORY_EXPIRE_DATE</t>
+        </is>
+      </c>
+      <c r="J366" s="0" t="inlineStr">
+        <is>
+          <t>ITEM_OPTIONS</t>
+        </is>
+      </c>
+      <c r="K366" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T366" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U366" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V366" s="0" t="inlineStr">
+        <is>
+          <t>pim_catalog_date</t>
+        </is>
+      </c>
+      <c r="W366" s="0" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="X366" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
         </is>
       </c>
     </row>
